--- a/power_plant_power_calculated_Q_values_Serik.xlsx
+++ b/power_plant_power_calculated_Q_values_Serik.xlsx
@@ -445,28 +445,28 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>-3404159.844</v>
+        <v>635238.1331664401</v>
       </c>
       <c r="C2">
-        <v>-3309768.7724</v>
+        <v>123719.5081914741</v>
       </c>
       <c r="D2">
-        <v>-3737253.356000001</v>
+        <v>443053.8529280599</v>
       </c>
       <c r="E2">
-        <v>-3682428.3476</v>
+        <v>-129167.220011149</v>
       </c>
       <c r="F2">
-        <v>-3056554.212000001</v>
+        <v>607085.8138021199</v>
       </c>
       <c r="G2">
-        <v>-2948747.9052</v>
+        <v>165346.1167318021</v>
       </c>
       <c r="H2">
-        <v>-3700948.314000001</v>
+        <v>573298.3827691401</v>
       </c>
       <c r="I2">
-        <v>-3615423.7944</v>
+        <v>17685.89785376893</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -474,28 +474,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-3464556.30025</v>
+        <v>321623.3218869864</v>
       </c>
       <c r="C3">
-        <v>-3338373.4474</v>
+        <v>-120120.7685835615</v>
       </c>
       <c r="D3">
-        <v>-3789383.96225</v>
+        <v>128871.6932173465</v>
       </c>
       <c r="E3">
-        <v>-3700018.80385</v>
+        <v>-369501.4967027553</v>
       </c>
       <c r="F3">
-        <v>-3113398.868250001</v>
+        <v>320577.9983393598</v>
       </c>
       <c r="G3">
-        <v>-2977352.5802</v>
+        <v>-58472.24359904422</v>
       </c>
       <c r="H3">
-        <v>-3759901.851500001</v>
+        <v>246404.4928542533</v>
       </c>
       <c r="I3">
-        <v>-3638274.236275</v>
+        <v>-232913.8435738847</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -503,28 +503,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>-3823494.231500001</v>
+        <v>-526412.4959050801</v>
       </c>
       <c r="C4">
-        <v>-3505752.0224</v>
+        <v>-703232.5471443183</v>
       </c>
       <c r="D4">
-        <v>-4088665.818500001</v>
+        <v>-676569.6037564203</v>
       </c>
       <c r="E4">
-        <v>-3801610.1726</v>
+        <v>-901328.3900679573</v>
       </c>
       <c r="F4">
-        <v>-3444049.249500001</v>
+        <v>-453672.7916348404</v>
       </c>
       <c r="G4">
-        <v>-3144731.1552</v>
+        <v>-602911.1660146143</v>
       </c>
       <c r="H4">
-        <v>-4103506.789000001</v>
+        <v>-614734.2548239804</v>
       </c>
       <c r="I4">
-        <v>-3791231.5519</v>
+        <v>-825774.8978503832</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -532,28 +532,28 @@
         <v>11</v>
       </c>
       <c r="B5">
-        <v>-4291697.5815</v>
+        <v>-1509518.406814321</v>
       </c>
       <c r="C5">
-        <v>-3741788.1599</v>
+        <v>-1376935.861417172</v>
       </c>
       <c r="D5">
-        <v>-4490332.368500001</v>
+        <v>-1611100.43190668</v>
       </c>
       <c r="E5">
-        <v>-3938092.5851</v>
+        <v>-1490745.438995678</v>
       </c>
       <c r="F5">
-        <v>-3883838.199500002</v>
+        <v>-1360466.38990136</v>
       </c>
       <c r="G5">
-        <v>-3380767.292700001</v>
+        <v>-1235901.254541157</v>
       </c>
       <c r="H5">
-        <v>-4563782.014000001</v>
+        <v>-1619848.236134921</v>
       </c>
       <c r="I5">
-        <v>-3990925.1644</v>
+        <v>-1488581.453214682</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -741,28 +741,28 @@
         <v>19</v>
       </c>
       <c r="B12">
-        <v>-4241195.42525</v>
+        <v>-401416.5038192401</v>
       </c>
       <c r="C12">
-        <v>-3716148.60365</v>
+        <v>-452336.5204338541</v>
       </c>
       <c r="D12">
-        <v>-4447080.899750001</v>
+        <v>-473356.2019902602</v>
       </c>
       <c r="E12">
-        <v>-3923675.42885</v>
+        <v>-546009.4357542209</v>
       </c>
       <c r="F12">
-        <v>-3836443.868250001</v>
+        <v>-353853.6836965202</v>
       </c>
       <c r="G12">
-        <v>-3355127.73645</v>
+        <v>-394926.079579542</v>
       </c>
       <c r="H12">
-        <v>-4514500.789000001</v>
+        <v>-451478.90702094</v>
       </c>
       <c r="I12">
-        <v>-3969614.3644</v>
+        <v>-516045.764717799</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -770,28 +770,28 @@
         <v>20</v>
       </c>
       <c r="B13">
-        <v>-3669863.02525</v>
+        <v>470816.9671007201</v>
       </c>
       <c r="C13">
-        <v>-3430101.85365</v>
+        <v>89476.139848112</v>
       </c>
       <c r="D13">
-        <v>-3957187.456000001</v>
+        <v>327934.8616652801</v>
       </c>
       <c r="E13">
-        <v>-3757916.2726</v>
+        <v>-115562.302584512</v>
       </c>
       <c r="F13">
-        <v>-3304609.387000001</v>
+        <v>450891.0711785601</v>
       </c>
       <c r="G13">
-        <v>-3069080.98645</v>
+        <v>123094.403001776</v>
       </c>
       <c r="H13">
-        <v>-3956424.214000001</v>
+        <v>424992.98720832</v>
       </c>
       <c r="I13">
-        <v>-3726728.3269</v>
+        <v>-2523.705872927939</v>
       </c>
     </row>
   </sheetData>
